--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3211118.525621848</v>
+        <v>3315298.160072921</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +664,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>186.8460807091483</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>212.669164637509</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -829,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>41.85858603877556</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>6.380068175848154</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -877,7 +879,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -896,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>95.38431235357488</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,13 +907,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -950,19 +952,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>78.77217925081747</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>139.3640742663478</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1069,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>49.33547569285572</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>373.7880418746628</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>43.0033878028913</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1294,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>76.76512966453343</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>18.11896852913101</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701339</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1531,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>87.21471514852939</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1591,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>112.1188594237458</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1768,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>130.5513683573768</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2005,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>33.82891891787487</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>23.05950344416366</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2141,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174109</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2175,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2242,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>191.2560787872424</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2327,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>62.14989839348932</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2533,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>37.17792077063368</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2606,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576153</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2719,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2795,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>14.92158678358342</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>151.8555862333609</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3190,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>60.11729550773637</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3269,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3433,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>239.7247859410132</v>
+        <v>151.5133592021562</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3509,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3667,16 +3669,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>70.58974991479306</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3712,16 +3714,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>105.1162657551307</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3749,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417108</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>79.70119244397746</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3986,13 +3988,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695666</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4138,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>33.84547402811514</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>172.0260335000785</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1986.901740067214</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4346,34 +4348,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3026.581738278539</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.784676410102</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="W2" t="n">
-        <v>2746.967338392416</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="X2" t="n">
-        <v>2373.501580131336</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y2" t="n">
-        <v>2373.501580131336</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686076</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.064395508013</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1919.583836883732</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C4" t="n">
-        <v>1750.647653955825</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D4" t="n">
-        <v>1750.647653955825</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>1750.647653955825</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>1750.647653955825</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>1708.366253916658</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134516</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>3133.919937435997</v>
+        <v>1920.850034779555</v>
       </c>
       <c r="T4" t="n">
-        <v>2912.153322005523</v>
+        <v>1699.083419349081</v>
       </c>
       <c r="U4" t="n">
-        <v>2623.050455131166</v>
+        <v>1409.980552474725</v>
       </c>
       <c r="V4" t="n">
-        <v>2368.36596692528</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="W4" t="n">
-        <v>2368.36596692528</v>
+        <v>865.8788942318774</v>
       </c>
       <c r="X4" t="n">
-        <v>2140.376416027262</v>
+        <v>637.8893433338601</v>
       </c>
       <c r="Y4" t="n">
-        <v>1919.583836883732</v>
+        <v>417.09676419033</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1774.969111598457</v>
+        <v>1537.086630593157</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,7 +4567,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4574,7 +4576,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4598,19 +4600,19 @@
         <v>3119.628073993393</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267229</v>
+        <v>3040.060216164285</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.034709923658</v>
+        <v>3040.060216164285</v>
       </c>
       <c r="W5" t="n">
-        <v>2535.034709923658</v>
+        <v>2687.29156089417</v>
       </c>
       <c r="X5" t="n">
-        <v>2161.568951662578</v>
+        <v>2313.82580263309</v>
       </c>
       <c r="Y5" t="n">
-        <v>2161.568951662578</v>
+        <v>1923.686470657279</v>
       </c>
     </row>
     <row r="6">
@@ -4620,64 +4622,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>651.5308283972846</v>
+        <v>630.8037095364738</v>
       </c>
       <c r="C7" t="n">
-        <v>510.7590362090544</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="D7" t="n">
-        <v>360.6423967967187</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1877.460734257325</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1685.774850084152</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1464.008234653678</v>
       </c>
       <c r="U7" t="n">
-        <v>1416.425065783662</v>
+        <v>1174.905367779321</v>
       </c>
       <c r="V7" t="n">
-        <v>1161.740577577775</v>
+        <v>920.2208795734343</v>
       </c>
       <c r="W7" t="n">
-        <v>872.3234075408147</v>
+        <v>630.8037095364738</v>
       </c>
       <c r="X7" t="n">
-        <v>872.3234075408147</v>
+        <v>630.8037095364738</v>
       </c>
       <c r="Y7" t="n">
-        <v>651.5308283972846</v>
+        <v>630.8037095364738</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1921.870414581993</v>
+        <v>1582.86133602681</v>
       </c>
       <c r="C8" t="n">
-        <v>1552.907897641581</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D8" t="n">
-        <v>1194.642199034831</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1194.642199034831</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>783.6562942452231</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W8" t="n">
-        <v>3072.075344883006</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X8" t="n">
-        <v>2698.609586621926</v>
+        <v>2359.600508066744</v>
       </c>
       <c r="Y8" t="n">
-        <v>2308.470254646114</v>
+        <v>1969.461176090932</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>480.687070124138</v>
+        <v>2124.241715284777</v>
       </c>
       <c r="C10" t="n">
-        <v>311.7508871962311</v>
+        <v>1955.30553235687</v>
       </c>
       <c r="D10" t="n">
-        <v>311.7508871962311</v>
+        <v>1877.76499734219</v>
       </c>
       <c r="E10" t="n">
-        <v>163.837793613838</v>
+        <v>1729.851903759797</v>
       </c>
       <c r="F10" t="n">
-        <v>163.837793613838</v>
+        <v>1729.851903759797</v>
       </c>
       <c r="G10" t="n">
-        <v>163.837793613838</v>
+        <v>1562.149067134516</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>1562.149067134516</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R10" t="n">
-        <v>1908.992559675229</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S10" t="n">
-        <v>1717.306675502055</v>
+        <v>3044.089480193525</v>
       </c>
       <c r="T10" t="n">
-        <v>1495.540060071582</v>
+        <v>3044.089480193525</v>
       </c>
       <c r="U10" t="n">
-        <v>1206.437193197225</v>
+        <v>3044.089480193525</v>
       </c>
       <c r="V10" t="n">
-        <v>951.7527049913383</v>
+        <v>3044.089480193525</v>
       </c>
       <c r="W10" t="n">
-        <v>662.3355349543777</v>
+        <v>2754.672310156564</v>
       </c>
       <c r="X10" t="n">
-        <v>662.3355349543777</v>
+        <v>2526.682759258547</v>
       </c>
       <c r="Y10" t="n">
-        <v>662.3355349543777</v>
+        <v>2305.890180115017</v>
       </c>
     </row>
     <row r="11">
@@ -5036,25 +5038,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5118,25 +5120,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>741.8431516380886</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C13" t="n">
-        <v>572.9069687101817</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D13" t="n">
-        <v>572.9069687101817</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5239,10 +5241,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611858</v>
+        <v>1031.03282245656</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683283</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5269,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5299,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,19 +5354,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M15" t="n">
-        <v>1307.627092998424</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
         <v>1307.627092998424</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5461,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1556.515784806851</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,7 +5536,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,16 +5591,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M18" t="n">
         <v>680.0291294438176</v>
@@ -5653,19 +5655,19 @@
         <v>572.9069687101817</v>
       </c>
       <c r="D19" t="n">
-        <v>422.7903292978459</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E19" t="n">
-        <v>274.8772357154528</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="F19" t="n">
-        <v>127.9872882175424</v>
+        <v>426.0170212122713</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>258.8209219271512</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>117.1090907693493</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5741,52 +5743,52 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C21" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D21" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797183</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797183</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756265</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K21" t="n">
-        <v>577.388077746847</v>
+        <v>2716.927329289434</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>3212.252935505192</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589157</v>
+        <v>3212.252935505192</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143764</v>
+        <v>3839.850899059799</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>4391.760629299086</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T21" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U21" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V21" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W21" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y21" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="22">
@@ -5884,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="23">
@@ -5969,10 +5971,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5984,10 +5986,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6063,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2939.372134388645</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C25" t="n">
-        <v>2876.594459243706</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D25" t="n">
-        <v>2876.594459243706</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E25" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.571434467152</v>
+        <v>1650.832398530834</v>
       </c>
       <c r="W25" t="n">
-        <v>3388.154264430192</v>
+        <v>1361.415228493873</v>
       </c>
       <c r="X25" t="n">
-        <v>3160.164713532175</v>
+        <v>1133.425677595856</v>
       </c>
       <c r="Y25" t="n">
-        <v>2939.372134388645</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6245,13 +6247,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>244.2098454714574</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>739.5354516872161</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.913939313768</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N27" t="n">
-        <v>1964.511902868375</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6415,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,19 +6451,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075813</v>
@@ -6543,25 +6545,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.0655846733341</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>411.1294017454274</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>261.0127623330918</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330918</v>
+        <v>417.7969033733013</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330918</v>
+        <v>417.7969033733013</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>250.6008040881813</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>108.8889729303794</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2043.67306444377</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1754.597837787968</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1499.913349582081</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1210.496179545121</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>982.5066286471038</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>761.7140495035737</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6692,16 +6694,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6774,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>94.56320294380271</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>244.2098454714574</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,31 +6925,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,31 +6958,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>560.7825789706076</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C37" t="n">
-        <v>391.8463960427007</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D37" t="n">
-        <v>241.729756630365</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E37" t="n">
-        <v>93.81666304797186</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797186</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U37" t="n">
-        <v>1735.314832085242</v>
+        <v>4068.287352154946</v>
       </c>
       <c r="V37" t="n">
-        <v>1480.630343879355</v>
+        <v>3813.602863949059</v>
       </c>
       <c r="W37" t="n">
-        <v>1191.213173842395</v>
+        <v>3524.185693912098</v>
       </c>
       <c r="X37" t="n">
-        <v>963.2236229443774</v>
+        <v>3524.185693912098</v>
       </c>
       <c r="Y37" t="n">
-        <v>742.4310438008473</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>94.56320294380271</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>244.2098454714574</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2516.421633107662</v>
@@ -7306,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3195.647281583947</v>
+        <v>2977.325134535463</v>
       </c>
       <c r="C40" t="n">
-        <v>3026.711098656041</v>
+        <v>2808.388951607556</v>
       </c>
       <c r="D40" t="n">
-        <v>2876.594459243705</v>
+        <v>2658.272312195221</v>
       </c>
       <c r="E40" t="n">
-        <v>2728.681365661312</v>
+        <v>2658.272312195221</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661312</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376192</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.77343521839</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866303</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296627</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822166</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998106</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729141</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.430181389149</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098134</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671693</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q40" t="n">
         <v>4690.833152398593</v>
@@ -7357,25 +7359,25 @@
         <v>4623.787448650995</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.932614305899</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.33114932884</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.255922673038</v>
+        <v>4151.857387650098</v>
       </c>
       <c r="V40" t="n">
-        <v>3826.077876455734</v>
+        <v>3897.172899444211</v>
       </c>
       <c r="W40" t="n">
-        <v>3826.077876455734</v>
+        <v>3607.75572940725</v>
       </c>
       <c r="X40" t="n">
-        <v>3598.088325557717</v>
+        <v>3379.766178509233</v>
       </c>
       <c r="Y40" t="n">
-        <v>3377.295746414187</v>
+        <v>3158.973599365703</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7393,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7424,13 +7426,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7442,10 +7444,10 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
         <v>3467.980956852888</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,46 +7636,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>506.2737913123336</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>506.2737913123336</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.652278938886</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>2977.325134535463</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>2808.388951607556</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>2774.20160410441</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>2626.288510522017</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578603</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T46" t="n">
-        <v>2273.199413378161</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="U46" t="n">
-        <v>2273.199413378161</v>
+        <v>4151.857387650098</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>3897.172899444211</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>3607.75572940725</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>3379.766178509233</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>3158.973599365703</v>
       </c>
     </row>
   </sheetData>
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>59.21924749803978</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>113.5907959652914</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>131.695219374394</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>58.20633287440187</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>60.88156453658559</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>105.0969227051385</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24421,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>214.9597225531943</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24607,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>124.5310997715154</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856539</v>
+        <v>66.34424953498211</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>65.5498640939272</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25078,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>226.4057028288546</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>46.45968844823096</v>
+        <v>134.6711151870879</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25555,16 +25557,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>74.83129810813818</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25600,16 +25602,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>147.0213775686973</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25846,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>146.0084629450597</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>114.7699989900972</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>45.37941682720972</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>699493.3769667763</v>
+        <v>699493.3769667762</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>699493.3769667763</v>
+        <v>699493.3769667762</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778558</v>
+        <v>738937.5928778555</v>
       </c>
       <c r="C2" t="n">
         <v>738937.5928778554</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778555</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210056</v>
       </c>
       <c r="F2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="G2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="H2" t="n">
+        <v>726431.9397210056</v>
+      </c>
+      <c r="I2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="G2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="K2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="L2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="M2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="N2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="I2" t="n">
+      <c r="O2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="J2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="K2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>726431.9397210055</v>
-      </c>
-      <c r="O2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="P2" t="n">
-        <v>726431.9397210056</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26423,43 @@
         <v>93403.78684820633</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685509</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685509</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685515</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685509</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685509</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="M4" t="n">
-        <v>14216.75207685511</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
-        <v>14216.75207685512</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="O4" t="n">
-        <v>14216.75207685508</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="P4" t="n">
-        <v>14216.75207685501</v>
+        <v>14216.75207685505</v>
       </c>
     </row>
     <row r="5">
@@ -26519,43 +26521,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-791144.8802593362</v>
+        <v>-791144.8802593367</v>
       </c>
       <c r="C6" t="n">
         <v>537599.8654682558</v>
       </c>
       <c r="D6" t="n">
-        <v>537599.8654682555</v>
+        <v>537599.8654682562</v>
       </c>
       <c r="E6" t="n">
-        <v>285680.1960128875</v>
+        <v>285680.1960128881</v>
       </c>
       <c r="F6" t="n">
+        <v>611092.6578202432</v>
+      </c>
+      <c r="G6" t="n">
+        <v>611092.6578202434</v>
+      </c>
+      <c r="H6" t="n">
+        <v>611092.6578202435</v>
+      </c>
+      <c r="I6" t="n">
         <v>611092.6578202433</v>
       </c>
-      <c r="G6" t="n">
-        <v>611092.6578202433</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
+        <v>393561.4554229659</v>
+      </c>
+      <c r="K6" t="n">
         <v>611092.6578202434</v>
       </c>
-      <c r="I6" t="n">
+      <c r="L6" t="n">
+        <v>611092.6578202434</v>
+      </c>
+      <c r="M6" t="n">
+        <v>526037.6298847315</v>
+      </c>
+      <c r="N6" t="n">
         <v>611092.6578202432</v>
-      </c>
-      <c r="J6" t="n">
-        <v>393561.4554229658</v>
-      </c>
-      <c r="K6" t="n">
-        <v>611092.6578202432</v>
-      </c>
-      <c r="L6" t="n">
-        <v>611092.6578202432</v>
-      </c>
-      <c r="M6" t="n">
-        <v>526037.6298847311</v>
-      </c>
-      <c r="N6" t="n">
-        <v>611092.6578202433</v>
       </c>
       <c r="O6" t="n">
         <v>611092.657820243</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26829,7 +26831,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26996,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,31 +27011,31 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>341.3068326973557</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>341.306832697356</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27384,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>17.0718894304718</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>136.571804079904</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27549,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>124.1672222202527</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>183.3889571555937</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,7 +27599,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>269.8885794174327</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>172.2229927080845</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>27.88274683227999</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27789,10 +27791,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>39.59667697719161</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,16 +27858,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>37.13368377879061</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>326.7277128755777</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>71.85034335367892</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>70.81318414091632</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,28 +31840,28 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
@@ -32072,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32081,13 +32083,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>379.4203056753705</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32233,7 +32235,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K17" t="n">
         <v>699.5441750817575</v>
@@ -32309,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32321,7 +32323,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>583.1096135868578</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32461,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,40 +32548,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>363.537151478685</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>436.0678650906006</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32783,34 +32785,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>732.4825987614915</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>316.0872899694776</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32941,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33026,10 +33028,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>665.2579603615019</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,13 +33180,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
@@ -33263,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>583.1096135868578</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33284,7 +33286,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>100.2764607028594</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,13 +33514,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>359.1374415194863</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33652,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33734,19 +33736,19 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>362.8934092184361</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>639.8517673857162</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,10 +33757,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33901,7 +33903,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33968,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>100.2764607028594</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>583.1096135868578</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>491.5977325265315</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34448,10 +34450,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>401.521336481369</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>300.5543663814922</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34466,7 +34468,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R12" t="n">
         <v>37.00975247789211</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>237.2862717533522</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35881,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35969,7 +35971,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>440.9755796648395</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -36115,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>220.9409070342406</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>302.0934576762704</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36370,7 +36372,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>590.3485648394733</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>173.4910455250332</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36674,10 +36676,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>522.6617159170574</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,13 +36828,13 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36911,19 +36913,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>440.9755796648395</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36932,7 +36934,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37142,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.7540807028594299</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,13 +37162,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37300,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37382,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>224.339029438562</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>508.510055302383</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,10 +37405,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37549,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37616,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.7540807028594443</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367767</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>440.9755796648395</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>349.0014880820871</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38035,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924738</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38096,10 +38098,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>263.67989750701</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>161.999986601618</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38114,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3315298.160072921</v>
+        <v>3311285.550058926</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8122415.266352059</v>
+        <v>8122415.26635206</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>4.792004777350316</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>186.8460807091483</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -819,16 +819,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>122.1619440939135</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>6.380068175848154</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>310.9299993360277</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>78.77217925081747</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1065,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>49.33547569285572</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>13.02719212039631</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>131.9577048658572</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>43.0033878028913</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>76.76512966453343</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>196.9899243971805</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444152</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>77.39507264402677</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>112.1188594237458</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,16 +1821,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>130.5513683573768</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>154.4892550148508</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>23.05950344416366</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,10 +2295,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>191.2560787872424</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>37.17792077063368</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>161.355549430153</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994143001</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>21.90286287505374</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881294</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I31" t="n">
-        <v>14.92158678358342</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>60.11729550773637</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>151.5133592021562</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>104.8913819999787</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>70.58974991479306</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3906,7 +3906,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>26.13627195705873</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856552</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3960,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>79.70119244397746</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>33.84547402811514</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>154.0370966050012</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1643.543434242328</v>
+        <v>1303.529887077737</v>
       </c>
       <c r="C2" t="n">
-        <v>1274.580917301916</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>916.3152186951659</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>530.5269660969217</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>119.5410613073141</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
         <v>108.5090151927147</v>
@@ -4327,13 +4327,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4342,7 +4342,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3026.581738278539</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2773.051261552376</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2773.051261552376</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2420.282606282261</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2420.282606282261</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2030.14327430645</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235.4482993600903</v>
+        <v>732.1533772316425</v>
       </c>
       <c r="C4" t="n">
-        <v>66.5121164321834</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="D4" t="n">
-        <v>66.5121164321834</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E4" t="n">
-        <v>66.5121164321834</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1920.850034779555</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1699.083419349081</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1409.980552474725</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V4" t="n">
-        <v>1155.296064268838</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W4" t="n">
-        <v>865.8788942318774</v>
+        <v>1134.594421205412</v>
       </c>
       <c r="X4" t="n">
-        <v>637.8893433338601</v>
+        <v>1134.594421205412</v>
       </c>
       <c r="Y4" t="n">
-        <v>417.09676419033</v>
+        <v>913.8018420618822</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1537.086630593157</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="C5" t="n">
-        <v>1168.124113652745</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="D5" t="n">
-        <v>809.8584150459947</v>
+        <v>1546.221676928586</v>
       </c>
       <c r="E5" t="n">
-        <v>424.0701624477504</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4567,13 +4567,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
@@ -4594,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3040.060216164285</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>3040.060216164285</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2687.29156089417</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2313.82580263309</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y5" t="n">
-        <v>1923.686470657279</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="6">
@@ -4622,64 +4622,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>630.8037095364738</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>461.8675266085669</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>311.7508871962312</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1877.460734257325</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1685.774850084152</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1464.008234653678</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1174.905367779321</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>920.2208795734343</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="W7" t="n">
-        <v>630.8037095364738</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X7" t="n">
-        <v>630.8037095364738</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y7" t="n">
-        <v>630.8037095364738</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1582.86133602681</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C8" t="n">
-        <v>1213.898819086399</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>1340.243929312809</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>954.4556767145643</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4804,19 +4804,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4840,16 +4840,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.03827352421</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2359.600508066744</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1969.461176090932</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4901,22 +4901,22 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2124.241715284777</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="C10" t="n">
-        <v>1955.30553235687</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D10" t="n">
-        <v>1877.76499734219</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E10" t="n">
-        <v>1729.851903759797</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F10" t="n">
-        <v>1729.851903759797</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>1562.149067134516</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>1562.149067134516</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>3235.775364366698</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>3044.089480193525</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>3044.089480193525</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>3044.089480193525</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>3044.089480193525</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>2754.672310156564</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>2526.682759258547</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y10" t="n">
-        <v>2305.890180115017</v>
+        <v>163.8377936138381</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362701</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192639</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5056,37 +5056,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.3843576263199</v>
+        <v>802.9288273958748</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>633.9926444679679</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304623</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267662</v>
       </c>
       <c r="X13" t="n">
-        <v>1031.03282245656</v>
+        <v>1205.369871369645</v>
       </c>
       <c r="Y13" t="n">
-        <v>1031.03282245656</v>
+        <v>984.5772922261145</v>
       </c>
     </row>
     <row r="14">
@@ -5257,43 +5257,43 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5302,25 +5302,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>636.6680198981028</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>467.7318369701959</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>317.6151975578602</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578602</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V16" t="n">
-        <v>1556.515784806851</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W16" t="n">
-        <v>1267.09861476989</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X16" t="n">
-        <v>1039.109063871873</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>818.3164847283425</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5533,31 +5533,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>572.9069687101817</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>572.9069687101817</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E19" t="n">
-        <v>572.9069687101817</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F19" t="n">
-        <v>426.0170212122713</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G19" t="n">
-        <v>258.8209219271512</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>117.1090907693493</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5746,43 +5746,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>2716.927329289434</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>3212.252935505192</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M21" t="n">
-        <v>3212.252935505192</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>3839.850899059799</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>4391.760629299086</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5971,10 +5971,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5983,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,19 +6001,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
         <v>4606.285157492578</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>951.777212765616</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>782.8410298377091</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1650.832398530834</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1361.415228493873</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1133.425677595856</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1133.425677595856</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6217,31 +6217,31 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>322.7933138979686</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,25 +6475,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M30" t="n">
-        <v>1268.578514636218</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>565.7099969556945</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>565.7099969556945</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>417.7969033733013</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>417.7969033733013</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>250.6008040881813</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
-        <v>108.8889729303794</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6694,28 +6694,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6794,13 +6794,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>2044.506784258106</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1789.822296052219</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>4068.287352154946</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>3813.602863949059</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>3524.185693912098</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>3524.185693912098</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7268,13 +7268,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2977.325134535463</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>2808.388951607556</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D40" t="n">
-        <v>2658.272312195221</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E40" t="n">
-        <v>2658.272312195221</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>2586.969534503511</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>4151.857387650098</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>3897.172899444211</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>3607.75572940725</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>3379.766178509233</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>3158.973599365703</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7426,13 +7426,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>923.0670414349513</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1550.665004989558</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>950.7540666811332</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C43" t="n">
-        <v>781.8178837532263</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408905</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>202.303641104158</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000582</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.70136564882</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X43" t="n">
-        <v>1353.195110654903</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y43" t="n">
-        <v>1132.402531511373</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="44">
@@ -7636,37 +7636,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2977.325134535463</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C46" t="n">
-        <v>2808.388951607556</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D46" t="n">
-        <v>2774.20160410441</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>2626.288510522017</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>2479.398563024106</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>2479.398563024106</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>4440.9326143059</v>
+        <v>2041.469518613829</v>
       </c>
       <c r="U46" t="n">
-        <v>4151.857387650098</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V46" t="n">
-        <v>3897.172899444211</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W46" t="n">
-        <v>3607.75572940725</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X46" t="n">
-        <v>3379.766178509233</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y46" t="n">
-        <v>3158.973599365703</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
   </sheetData>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>71.22040037418559</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>113.5907959652914</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>121.5862749664512</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>71.22040037418631</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>58.20633287440187</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>60.88156453658559</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>214.9597225531943</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>57.22910392194177</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,16 +24609,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>124.5310997715154</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I31" t="n">
-        <v>66.34424953498211</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>226.4057028288546</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>134.6711151870879</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>62.35543909864917</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>74.83129810813818</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>146.0084629450597</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>114.7699989900972</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>63.36835372228705</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>699493.3769667762</v>
+        <v>699493.3769667763</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738937.5928778554</v>
+      </c>
+      <c r="C2" t="n">
         <v>738937.5928778555</v>
       </c>
-      <c r="C2" t="n">
-        <v>738937.5928778554</v>
-      </c>
       <c r="D2" t="n">
-        <v>738937.5928778555</v>
+        <v>738937.5928778552</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210056</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="F2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="G2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="G2" t="n">
-        <v>726431.9397210055</v>
-      </c>
       <c r="H2" t="n">
-        <v>726431.9397210056</v>
+        <v>726431.939721005</v>
       </c>
       <c r="I2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.939721005</v>
       </c>
       <c r="J2" t="n">
         <v>726431.9397210055</v>
       </c>
       <c r="K2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210049</v>
       </c>
       <c r="L2" t="n">
         <v>726431.9397210055</v>
       </c>
       <c r="M2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="N2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="O2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="P2" t="n">
         <v>726431.9397210053</v>
-      </c>
-      <c r="P2" t="n">
-        <v>726431.9397210055</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073559</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>93403.78684820633</v>
+      </c>
+      <c r="C4" t="n">
         <v>93403.78684820636</v>
       </c>
-      <c r="C4" t="n">
-        <v>93403.78684820633</v>
-      </c>
       <c r="D4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685499</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685501</v>
       </c>
       <c r="G4" t="n">
         <v>14216.75207685505</v>
@@ -26438,13 +26438,13 @@
         <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685501</v>
       </c>
       <c r="J4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685501</v>
       </c>
       <c r="L4" t="n">
         <v>14216.75207685505</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-791144.8802593367</v>
+        <v>-791144.8802593368</v>
       </c>
       <c r="C6" t="n">
-        <v>537599.8654682558</v>
+        <v>537599.8654682559</v>
       </c>
       <c r="D6" t="n">
-        <v>537599.8654682562</v>
+        <v>537599.8654682555</v>
       </c>
       <c r="E6" t="n">
-        <v>285680.1960128881</v>
+        <v>285332.8167585302</v>
       </c>
       <c r="F6" t="n">
-        <v>611092.6578202432</v>
+        <v>610745.2785658867</v>
       </c>
       <c r="G6" t="n">
-        <v>611092.6578202434</v>
+        <v>610745.2785658862</v>
       </c>
       <c r="H6" t="n">
-        <v>611092.6578202435</v>
+        <v>610745.278565886</v>
       </c>
       <c r="I6" t="n">
-        <v>611092.6578202433</v>
+        <v>610745.278565886</v>
       </c>
       <c r="J6" t="n">
-        <v>393561.4554229659</v>
+        <v>393214.076168609</v>
       </c>
       <c r="K6" t="n">
-        <v>611092.6578202434</v>
+        <v>610745.2785658857</v>
       </c>
       <c r="L6" t="n">
-        <v>611092.6578202434</v>
+        <v>610745.2785658864</v>
       </c>
       <c r="M6" t="n">
-        <v>526037.6298847315</v>
+        <v>525690.2506303743</v>
       </c>
       <c r="N6" t="n">
-        <v>611092.6578202432</v>
+        <v>610745.2785658862</v>
       </c>
       <c r="O6" t="n">
-        <v>611092.657820243</v>
+        <v>610745.2785658864</v>
       </c>
       <c r="P6" t="n">
-        <v>611092.6578202435</v>
+        <v>610745.2785658862</v>
       </c>
     </row>
   </sheetData>
@@ -26789,34 +26789,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>377.9418368861303</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -27432,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>17.0718894304718</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27539,16 +27539,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>45.08487700471429</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>183.3889571555937</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>71.00037073623406</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>172.2229927080845</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>39.59667697719161</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>239.1104512034317</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>274.9183408758542</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>326.7277128755777</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>71.85034335367892</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28064,13 +28064,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>21.5947289549143</v>
       </c>
     </row>
     <row r="11">
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-5.780283390417846e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29568,7 +29568,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>-5.018581577683018e-13</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643557995</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>291.8940795642898</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32235,34 +32235,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>300.5543663814921</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>436.0678650906006</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>665.2579603615019</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>339.9772972286971</v>
+        <v>244.0266243181827</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>359.1374415194863</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>362.8934092184361</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>361.7519118779092</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33997,16 +33997,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,10 +34207,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422586</v>
@@ -34219,19 +34219,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>491.5977325265315</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>300.5543663814922</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,16 +34471,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113551</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>151.9123054782682</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>161.9999866016179</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>302.0934576762704</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,22 +36679,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>522.6617159170574</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>197.8432633066788</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>224.339029438562</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>219.1556674334648</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37867,19 +37867,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>349.0014880820871</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>161.999986601618</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3311285.550058926</v>
+        <v>3313046.080361713</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8122415.26635206</v>
+        <v>8122415.266352059</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.792004777350316</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>324.3727542084986</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>122.1619440939135</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,10 +831,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>108.8314371278625</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>310.9299993360277</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>347.4416819816026</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247902</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>5.389868198024926</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>13.02719212039631</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>131.9577048658572</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>94.81275980261711</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>71.67037196991774</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>196.9899243971805</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444152</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>77.39507264402677</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>29.24923305751745</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1660,7 +1660,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1770,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>154.4892550148508</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>27.0291980517616</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>65.78783178799286</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>161.355549430153</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>41.33703994143001</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881294</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="36">
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>104.8913819999787</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>26.13627195705873</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>154.0370966050012</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1303.529887077737</v>
+        <v>1648.004869410821</v>
       </c>
       <c r="C2" t="n">
-        <v>934.5673701373257</v>
+        <v>1648.004869410821</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
         <v>934.5673701373257</v>
@@ -4327,7 +4327,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912092</v>
@@ -4345,37 +4345,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943748</v>
+        <v>2034.604709474943</v>
       </c>
     </row>
     <row r="3">
@@ -4385,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
         <v>1685.951113992584</v>
@@ -4433,16 +4433,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199866</v>
@@ -4454,7 +4454,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.1533772316425</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>608.7574741064773</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>458.6408346941415</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>310.7277411117484</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>1817.363803514895</v>
       </c>
       <c r="V4" t="n">
-        <v>1424.011591242373</v>
+        <v>1562.679315309008</v>
       </c>
       <c r="W4" t="n">
-        <v>1134.594421205412</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="X4" t="n">
-        <v>1134.594421205412</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="Y4" t="n">
-        <v>913.8018420618822</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1904.487375535337</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C5" t="n">
-        <v>1904.487375535337</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1546.221676928586</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477181</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066531</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796417</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535337</v>
+        <v>2029.572515263131</v>
       </c>
       <c r="Y5" t="n">
-        <v>1904.487375535337</v>
+        <v>1678.62132134232</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811102</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999832</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387319</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332764</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601614</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927795</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064709</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297194</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199867</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471665</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266132</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601528</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764917</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q7" t="n">
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242374</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242374</v>
       </c>
       <c r="V7" t="n">
-        <v>1914.135768168901</v>
+        <v>1424.011591242374</v>
       </c>
       <c r="W7" t="n">
-        <v>1624.71859813194</v>
+        <v>1134.594421205413</v>
       </c>
       <c r="X7" t="n">
-        <v>1396.729047233923</v>
+        <v>906.6048703073959</v>
       </c>
       <c r="Y7" t="n">
-        <v>1175.936468090393</v>
+        <v>685.8122911638658</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1698.509627919559</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C8" t="n">
-        <v>1698.509627919559</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1340.243929312809</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>954.4556767145643</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839474</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052371</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136268</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.33740552049</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450756</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="Y8" t="n">
-        <v>1698.509627919559</v>
+        <v>1976.204921733553</v>
       </c>
     </row>
     <row r="9">
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
         <v>618.1564155387305</v>
@@ -4871,46 +4871,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158138</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>163.8377936138381</v>
+        <v>752.7622949738586</v>
       </c>
       <c r="C10" t="n">
-        <v>163.8377936138381</v>
+        <v>583.8261120459517</v>
       </c>
       <c r="D10" t="n">
-        <v>163.8377936138381</v>
+        <v>433.709472633616</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8377936138381</v>
+        <v>285.7963790512229</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>138.9064315533125</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279956</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764919</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q10" t="n">
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251691</v>
+        <v>1383.192889845646</v>
       </c>
       <c r="X10" t="n">
-        <v>362.8175152271517</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>163.8377936138381</v>
+        <v>934.4107598040983</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168629</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362701</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192639</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5065,28 +5065,28 @@
         <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>245.230692780394</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516147</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348534</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>802.9288273958748</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C13" t="n">
-        <v>633.9926444679679</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F13" t="n">
-        <v>261.012762333092</v>
+        <v>265.073174061852</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797191</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
         <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487569</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.46108051051</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.46108051051</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304623</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267662</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369645</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.5772922261145</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="14">
@@ -5257,13 +5257,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5278,25 +5278,25 @@
         <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5308,10 +5308,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5369,16 +5369,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
         <v>261.0127623330919</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5512,10 +5512,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5524,16 +5524,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5542,10 +5542,10 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5591,7 +5591,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803938</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5746,55 +5746,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5980,40 +5980,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
         <v>4606.285157492578</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2380.510728238854</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.655893893758</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1978.054428916699</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.979202260897</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,61 +6451,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,31 +6688,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098242</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>814.4194208819173</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>664.3027814695815</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>516.3896878871884</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>369.499740389278</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>202.303641104158</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640064</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,13 +7660,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>577.8620388433919</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>408.925855915485</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>408.925855915485</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2041.469518613829</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1752.394291958027</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1497.70980375214</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1208.292633715179</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>980.3030828171618</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>759.5105036736317</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>71.22040037418559</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>136.2749052347514</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>71.22040037418631</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>121.5862749664508</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>0.5874149221288292</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>62.35543909864917</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>114.1584408891651</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>63.36835372228705</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>699493.3769667763</v>
+        <v>699493.3769667762</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778554</v>
+        <v>738937.5928778553</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778555</v>
+        <v>738937.5928778556</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778558</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.939721005</v>
       </c>
       <c r="G2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="H2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="H2" t="n">
-        <v>726431.939721005</v>
-      </c>
       <c r="I2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="J2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="K2" t="n">
-        <v>726431.9397210049</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="L2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="M2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="N2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="P2" t="n">
         <v>726431.9397210053</v>
@@ -26368,13 +26368,13 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073559</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820628</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820625</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820626</v>
       </c>
       <c r="E4" t="n">
+        <v>14216.75207685505</v>
+      </c>
+      <c r="F4" t="n">
         <v>14216.75207685499</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>14216.75207685501</v>
-      </c>
-      <c r="G4" t="n">
-        <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.75207685501</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685501</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
         <v>14216.75207685505</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-791144.8802593368</v>
+        <v>-791144.8802593371</v>
       </c>
       <c r="C6" t="n">
         <v>537599.8654682559</v>
       </c>
       <c r="D6" t="n">
-        <v>537599.8654682555</v>
+        <v>537599.8654682562</v>
       </c>
       <c r="E6" t="n">
-        <v>285332.8167585302</v>
+        <v>285645.4580874525</v>
       </c>
       <c r="F6" t="n">
-        <v>610745.2785658867</v>
+        <v>611057.9198948073</v>
       </c>
       <c r="G6" t="n">
-        <v>610745.2785658862</v>
+        <v>611057.9198948075</v>
       </c>
       <c r="H6" t="n">
-        <v>610745.278565886</v>
+        <v>611057.9198948075</v>
       </c>
       <c r="I6" t="n">
-        <v>610745.278565886</v>
+        <v>611057.9198948076</v>
       </c>
       <c r="J6" t="n">
-        <v>393214.076168609</v>
+        <v>393526.7174975299</v>
       </c>
       <c r="K6" t="n">
-        <v>610745.2785658857</v>
+        <v>611057.9198948076</v>
       </c>
       <c r="L6" t="n">
-        <v>610745.2785658864</v>
+        <v>611057.9198948076</v>
       </c>
       <c r="M6" t="n">
-        <v>525690.2506303743</v>
+        <v>526002.8919592958</v>
       </c>
       <c r="N6" t="n">
-        <v>610745.2785658862</v>
+        <v>611057.9198948076</v>
       </c>
       <c r="O6" t="n">
-        <v>610745.2785658864</v>
+        <v>611057.9198948076</v>
       </c>
       <c r="P6" t="n">
-        <v>610745.2785658862</v>
+        <v>611057.9198948075</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022932</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26807,16 +26807,16 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>377.9418368861303</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>30.31028741218438</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>45.08487700471429</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>177.3804010777503</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>71.00037073623406</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>38.796256674451</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>174.4421119839124</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>239.1104512034317</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>274.9183408758542</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>274.9183408758519</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>94.35543628911049</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.5947289549143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-5.780283390417846e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-8.952838470577262e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29568,7 +29568,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>-5.018581577683018e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I5" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I8" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987471</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.307619600775</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643557995</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,7 +31867,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31925,31 +31925,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
         <v>0.1345549672467222</v>
@@ -32089,7 +32089,7 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9598929192557</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
@@ -32098,10 +32098,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>300.5543663814921</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32575,16 +32575,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>244.0266243181827</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127256</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902953</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774958</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674334</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113551</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35737,7 +35737,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>332.6181808359224</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
@@ -35746,10 +35746,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>161.9999866016179</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>101.8925903961643</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
